--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_first.xlsx
@@ -620,6 +620,9 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>0.5947585845621888</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Qminus1</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>2025-04-01_diff</t>
+  </si>
+  <si>
+    <t>2025-07-01_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01_diff</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.7996747605444591</v>
+        <v>-1.164515107544459</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -509,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.3447340856117954</v>
+        <v>-0.9686002503882047</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -541,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7866792255472805</v>
+        <v>0.6076553625472806</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -565,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.0674441109974082</v>
+        <v>0.4380760559974082</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -581,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.04207559447549236</v>
+        <v>-0.4191283315245076</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -589,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.1050003069890385</v>
+        <v>1.035245970010962</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -597,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.68503989883405</v>
+        <v>0.2459967371659499</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -605,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.066693834912281</v>
+        <v>0.9978217259122815</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -613,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.3097100027750048</v>
+        <v>-0.3737868047750048</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -621,7 +627,17 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.5947585845621888</v>
+        <v>0.2315426864241067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_first.xlsx
@@ -634,6 +634,9 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>0.331651578</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
